--- a/biology/Botanique/Selaginella_borealis/Selaginella_borealis.xlsx
+++ b/biology/Botanique/Selaginella_borealis/Selaginella_borealis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Selaginella borealis est une espèce de la famille des Selaginellaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une sélaginelle extrêmement bien adaptée aux climats extrêmes.
 De forme compacte aux tiges très courtes et fines, ses feuilles sont en forme d'écailles triangulaires d'une couleur vert foncé avec une pousse rampantes très zigzagantes.
